--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Timp2-Itga3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Timp2-Itga3.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.4901675</v>
+        <v>8.056257499999999</v>
       </c>
       <c r="H2">
-        <v>46.980335</v>
+        <v>16.112515</v>
       </c>
       <c r="I2">
-        <v>0.0895297714779042</v>
+        <v>0.03938105858691351</v>
       </c>
       <c r="J2">
-        <v>0.0656452012697491</v>
+        <v>0.02811570820878086</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.939895</v>
+        <v>18.2296485</v>
       </c>
       <c r="N2">
-        <v>27.87979</v>
+        <v>36.459297</v>
       </c>
       <c r="O2">
-        <v>0.4802889349037177</v>
+        <v>0.7085439801851577</v>
       </c>
       <c r="P2">
-        <v>0.4091514124048364</v>
+        <v>0.7001932751227076</v>
       </c>
       <c r="Q2">
-        <v>327.4504684824125</v>
+        <v>146.8627424504887</v>
       </c>
       <c r="R2">
-        <v>1309.80187392965</v>
+        <v>587.4509698019549</v>
       </c>
       <c r="S2">
-        <v>0.04300015858529584</v>
+        <v>0.02790321199507658</v>
       </c>
       <c r="T2">
-        <v>0.0268588268171176</v>
+        <v>0.01968642981310067</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.4901675</v>
+        <v>8.056257499999999</v>
       </c>
       <c r="H3">
-        <v>46.980335</v>
+        <v>16.112515</v>
       </c>
       <c r="I3">
-        <v>0.0895297714779042</v>
+        <v>0.03938105858691351</v>
       </c>
       <c r="J3">
-        <v>0.0656452012697491</v>
+        <v>0.02811570820878086</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.536709</v>
       </c>
       <c r="O3">
-        <v>0.01764872999083942</v>
+        <v>0.01990943327379303</v>
       </c>
       <c r="P3">
-        <v>0.02255205859890708</v>
+        <v>0.02951217922881346</v>
       </c>
       <c r="Q3">
-        <v>12.03251726958583</v>
+        <v>4.126707802189167</v>
       </c>
       <c r="R3">
-        <v>72.195103617515</v>
+        <v>24.760246813135</v>
       </c>
       <c r="S3">
-        <v>0.001580086762955087</v>
+        <v>0.0007840545581874885</v>
       </c>
       <c r="T3">
-        <v>0.001480434425772431</v>
+        <v>0.0008297558198025626</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.4901675</v>
+        <v>8.056257499999999</v>
       </c>
       <c r="H4">
-        <v>46.980335</v>
+        <v>16.112515</v>
       </c>
       <c r="I4">
-        <v>0.0895297714779042</v>
+        <v>0.03938105858691351</v>
       </c>
       <c r="J4">
-        <v>0.0656452012697491</v>
+        <v>0.02811570820878086</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1702606666666666</v>
+        <v>0.01613733333333333</v>
       </c>
       <c r="N4">
-        <v>0.510782</v>
+        <v>0.048412</v>
       </c>
       <c r="O4">
-        <v>0.005866207331499286</v>
+        <v>0.0006272205626770378</v>
       </c>
       <c r="P4">
-        <v>0.00749600971639195</v>
+        <v>0.0009297424696707817</v>
       </c>
       <c r="Q4">
-        <v>3.999451578661666</v>
+        <v>0.1300065126966667</v>
       </c>
       <c r="R4">
-        <v>23.99670947197</v>
+        <v>0.7800390761799999</v>
       </c>
       <c r="S4">
-        <v>0.0005252002018311372</v>
+        <v>2.470060972570128E-05</v>
       </c>
       <c r="T4">
-        <v>0.0004920770665525445</v>
+        <v>2.614036798657499E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.4901675</v>
+        <v>8.056257499999999</v>
       </c>
       <c r="H5">
-        <v>46.980335</v>
+        <v>16.112515</v>
       </c>
       <c r="I5">
-        <v>0.0895297714779042</v>
+        <v>0.03938105858691351</v>
       </c>
       <c r="J5">
-        <v>0.0656452012697491</v>
+        <v>0.02811570820878086</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.991516</v>
+        <v>6.884988</v>
       </c>
       <c r="N5">
-        <v>9.983032</v>
+        <v>13.769976</v>
       </c>
       <c r="O5">
-        <v>0.1719790502865958</v>
+        <v>0.267603448363091</v>
       </c>
       <c r="P5">
-        <v>0.1465065426562639</v>
+        <v>0.264449547499533</v>
       </c>
       <c r="Q5">
-        <v>117.25154691893</v>
+        <v>55.46723621240999</v>
       </c>
       <c r="R5">
-        <v>469.00618767572</v>
+        <v>221.86894484964</v>
       </c>
       <c r="S5">
-        <v>0.01539724507114592</v>
+        <v>0.01053850707804697</v>
       </c>
       <c r="T5">
-        <v>0.009617451480005524</v>
+        <v>0.007435186313441003</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.4901675</v>
+        <v>8.056257499999999</v>
       </c>
       <c r="H6">
-        <v>46.980335</v>
+        <v>16.112515</v>
       </c>
       <c r="I6">
-        <v>0.0895297714779042</v>
+        <v>0.03938105858691351</v>
       </c>
       <c r="J6">
-        <v>0.0656452012697491</v>
+        <v>0.02811570820878086</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>9.215909999999999</v>
+        <v>0.045438</v>
       </c>
       <c r="N6">
-        <v>27.64773</v>
+        <v>0.136314</v>
       </c>
       <c r="O6">
-        <v>0.317527470477254</v>
+        <v>0.001766069234502969</v>
       </c>
       <c r="P6">
-        <v>0.4057458029378114</v>
+        <v>0.00261788224016159</v>
       </c>
       <c r="Q6">
-        <v>216.483269564925</v>
+        <v>0.366060228285</v>
       </c>
       <c r="R6">
-        <v>1298.89961738955</v>
+        <v>2.19636136971</v>
       </c>
       <c r="S6">
-        <v>0.02842816186978552</v>
+        <v>6.954967599250691E-05</v>
       </c>
       <c r="T6">
-        <v>0.02663526489820859</v>
+        <v>7.360361318933285E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>23.4901675</v>
+        <v>8.056257499999999</v>
       </c>
       <c r="H7">
-        <v>46.980335</v>
+        <v>16.112515</v>
       </c>
       <c r="I7">
-        <v>0.0895297714779042</v>
+        <v>0.03938105858691351</v>
       </c>
       <c r="J7">
-        <v>0.0656452012697491</v>
+        <v>0.02811570820878086</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.194159</v>
+        <v>0.039875</v>
       </c>
       <c r="N7">
-        <v>0.5824769999999999</v>
+        <v>0.119625</v>
       </c>
       <c r="O7">
-        <v>0.006689607010093757</v>
+        <v>0.001549848380778333</v>
       </c>
       <c r="P7">
-        <v>0.008548173685789306</v>
+        <v>0.002297373439113593</v>
       </c>
       <c r="Q7">
-        <v>4.560827431632499</v>
+        <v>0.3212432678125</v>
       </c>
       <c r="R7">
-        <v>27.36496458979499</v>
+        <v>1.927459606875</v>
       </c>
       <c r="S7">
-        <v>0.00059891898689068</v>
+        <v>6.103466988426456E-05</v>
       </c>
       <c r="T7">
-        <v>0.000561146582092412</v>
+        <v>6.459228126072116E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>50.25773966666666</v>
+        <v>50.25773966666667</v>
       </c>
       <c r="H8">
         <v>150.773219</v>
       </c>
       <c r="I8">
-        <v>0.1915509520037551</v>
+        <v>0.2456727568922477</v>
       </c>
       <c r="J8">
-        <v>0.2106740683595159</v>
+        <v>0.2630933675532724</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.939895</v>
+        <v>18.2296485</v>
       </c>
       <c r="N8">
-        <v>27.87979</v>
+        <v>36.459297</v>
       </c>
       <c r="O8">
-        <v>0.4802889349037177</v>
+        <v>0.7085439801851577</v>
       </c>
       <c r="P8">
-        <v>0.4091514124048364</v>
+        <v>0.7001932751227076</v>
       </c>
       <c r="Q8">
-        <v>700.5876138906682</v>
+        <v>916.1809285278406</v>
       </c>
       <c r="R8">
-        <v>4203.52568334401</v>
+        <v>5497.085571167044</v>
       </c>
       <c r="S8">
-        <v>0.09199980271767667</v>
+        <v>0.1740699529914939</v>
       </c>
       <c r="T8">
-        <v>0.086197592626369</v>
+        <v>0.1842162066901881</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>50.25773966666666</v>
+        <v>50.25773966666667</v>
       </c>
       <c r="H9">
         <v>150.773219</v>
       </c>
       <c r="I9">
-        <v>0.1915509520037551</v>
+        <v>0.2456727568922477</v>
       </c>
       <c r="J9">
-        <v>0.2106740683595159</v>
+        <v>0.2630933675532724</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>1.536709</v>
       </c>
       <c r="O9">
-        <v>0.01764872999083942</v>
+        <v>0.01990943327379303</v>
       </c>
       <c r="P9">
-        <v>0.02255205859890708</v>
+        <v>0.02951217922881346</v>
       </c>
       <c r="Q9">
-        <v>25.74384028847455</v>
+        <v>25.74384028847456</v>
       </c>
       <c r="R9">
         <v>231.694562596271</v>
       </c>
       <c r="S9">
-        <v>0.003380631031402514</v>
+        <v>0.004891205360534983</v>
       </c>
       <c r="T9">
-        <v>0.00475113393491396</v>
+        <v>0.007764458617144271</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>50.25773966666666</v>
+        <v>50.25773966666667</v>
       </c>
       <c r="H10">
         <v>150.773219</v>
       </c>
       <c r="I10">
-        <v>0.1915509520037551</v>
+        <v>0.2456727568922477</v>
       </c>
       <c r="J10">
-        <v>0.2106740683595159</v>
+        <v>0.2630933675532724</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.1702606666666666</v>
+        <v>0.01613733333333333</v>
       </c>
       <c r="N10">
-        <v>0.510782</v>
+        <v>0.048412</v>
       </c>
       <c r="O10">
-        <v>0.005866207331499286</v>
+        <v>0.0006272205626770378</v>
       </c>
       <c r="P10">
-        <v>0.00749600971639195</v>
+        <v>0.0009297424696707817</v>
       </c>
       <c r="Q10">
-        <v>8.556916260806442</v>
+        <v>0.8110258975808889</v>
       </c>
       <c r="R10">
-        <v>77.01224634725799</v>
+        <v>7.299233078228</v>
       </c>
       <c r="S10">
-        <v>0.001123677599000096</v>
+        <v>0.0001540910048123748</v>
       </c>
       <c r="T10">
-        <v>0.001579214863414753</v>
+        <v>0.0002446090773029822</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>50.25773966666666</v>
+        <v>50.25773966666667</v>
       </c>
       <c r="H11">
         <v>150.773219</v>
       </c>
       <c r="I11">
-        <v>0.1915509520037551</v>
+        <v>0.2456727568922477</v>
       </c>
       <c r="J11">
-        <v>0.2106740683595159</v>
+        <v>0.2630933675532724</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.991516</v>
+        <v>6.884988</v>
       </c>
       <c r="N11">
-        <v>9.983032</v>
+        <v>13.769976</v>
       </c>
       <c r="O11">
-        <v>0.1719790502865958</v>
+        <v>0.267603448363091</v>
       </c>
       <c r="P11">
-        <v>0.1465065426562639</v>
+        <v>0.264449547499533</v>
       </c>
       <c r="Q11">
-        <v>250.8623116700013</v>
+        <v>346.023934512124</v>
       </c>
       <c r="R11">
-        <v>1505.173870020008</v>
+        <v>2076.143607072744</v>
       </c>
       <c r="S11">
-        <v>0.03294275080709909</v>
+        <v>0.06574287691323281</v>
       </c>
       <c r="T11">
-        <v>0.03086512938268207</v>
+        <v>0.0695749219995912</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>50.25773966666666</v>
+        <v>50.25773966666667</v>
       </c>
       <c r="H12">
         <v>150.773219</v>
       </c>
       <c r="I12">
-        <v>0.1915509520037551</v>
+        <v>0.2456727568922477</v>
       </c>
       <c r="J12">
-        <v>0.2106740683595159</v>
+        <v>0.2630933675532724</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>9.215909999999999</v>
+        <v>0.045438</v>
       </c>
       <c r="N12">
-        <v>27.64773</v>
+        <v>0.136314</v>
       </c>
       <c r="O12">
-        <v>0.317527470477254</v>
+        <v>0.001766069234502969</v>
       </c>
       <c r="P12">
-        <v>0.4057458029378114</v>
+        <v>0.00261788224016159</v>
       </c>
       <c r="Q12">
-        <v>463.1708055714299</v>
+        <v>2.283611174974</v>
       </c>
       <c r="R12">
-        <v>4168.537250142869</v>
+        <v>20.552500574766</v>
       </c>
       <c r="S12">
-        <v>0.06082268925726224</v>
+        <v>0.0004338750977029259</v>
       </c>
       <c r="T12">
-        <v>0.08548011902470717</v>
+        <v>0.0006887474544220175</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>50.25773966666666</v>
+        <v>50.25773966666667</v>
       </c>
       <c r="H13">
         <v>150.773219</v>
       </c>
       <c r="I13">
-        <v>0.1915509520037551</v>
+        <v>0.2456727568922477</v>
       </c>
       <c r="J13">
-        <v>0.2106740683595159</v>
+        <v>0.2630933675532724</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.194159</v>
+        <v>0.039875</v>
       </c>
       <c r="N13">
-        <v>0.5824769999999999</v>
+        <v>0.119625</v>
       </c>
       <c r="O13">
-        <v>0.006689607010093757</v>
+        <v>0.001549848380778333</v>
       </c>
       <c r="P13">
-        <v>0.008548173685789306</v>
+        <v>0.002297373439113593</v>
       </c>
       <c r="Q13">
-        <v>9.75799247594033</v>
+        <v>2.004027369208333</v>
       </c>
       <c r="R13">
-        <v>87.82193228346297</v>
+        <v>18.036246322875</v>
       </c>
       <c r="S13">
-        <v>0.001281400591314453</v>
+        <v>0.0003807555244707992</v>
       </c>
       <c r="T13">
-        <v>0.001800878527428992</v>
+        <v>0.000604423714623838</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>60.351156</v>
+        <v>21.91728366666667</v>
       </c>
       <c r="H14">
-        <v>181.053468</v>
+        <v>65.751851</v>
       </c>
       <c r="I14">
-        <v>0.2300207184604941</v>
+        <v>0.1071373193003082</v>
       </c>
       <c r="J14">
-        <v>0.2529843890522722</v>
+        <v>0.1147344071923741</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.939895</v>
+        <v>18.2296485</v>
       </c>
       <c r="N14">
-        <v>27.87979</v>
+        <v>36.459297</v>
       </c>
       <c r="O14">
-        <v>0.4802889349037177</v>
+        <v>0.7085439801851577</v>
       </c>
       <c r="P14">
-        <v>0.4091514124048364</v>
+        <v>0.7001932751227076</v>
       </c>
       <c r="Q14">
-        <v>841.2887777686201</v>
+        <v>399.5443773181245</v>
       </c>
       <c r="R14">
-        <v>5047.732666611721</v>
+        <v>2397.266263908747</v>
       </c>
       <c r="S14">
-        <v>0.1104764058751786</v>
+        <v>0.07591150264340848</v>
       </c>
       <c r="T14">
-        <v>0.1035089200971118</v>
+        <v>0.08033626034129078</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>60.351156</v>
+        <v>21.91728366666667</v>
       </c>
       <c r="H15">
-        <v>181.053468</v>
+        <v>65.751851</v>
       </c>
       <c r="I15">
-        <v>0.2300207184604941</v>
+        <v>0.1071373193003082</v>
       </c>
       <c r="J15">
-        <v>0.2529843890522722</v>
+        <v>0.1147344071923741</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.536709</v>
       </c>
       <c r="O15">
-        <v>0.01764872999083942</v>
+        <v>0.01990943327379303</v>
       </c>
       <c r="P15">
-        <v>0.02255205859890708</v>
+        <v>0.02951217922881346</v>
       </c>
       <c r="Q15">
-        <v>30.91405486186801</v>
+        <v>11.22682902203989</v>
       </c>
       <c r="R15">
-        <v>278.226493756812</v>
+        <v>101.041461198359</v>
       </c>
       <c r="S15">
-        <v>0.004059573552408152</v>
+        <v>0.002133043309742544</v>
       </c>
       <c r="T15">
-        <v>0.005705318766515551</v>
+        <v>0.00338606238877301</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>60.351156</v>
+        <v>21.91728366666667</v>
       </c>
       <c r="H16">
-        <v>181.053468</v>
+        <v>65.751851</v>
       </c>
       <c r="I16">
-        <v>0.2300207184604941</v>
+        <v>0.1071373193003082</v>
       </c>
       <c r="J16">
-        <v>0.2529843890522722</v>
+        <v>0.1147344071923741</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.1702606666666666</v>
+        <v>0.01613733333333333</v>
       </c>
       <c r="N16">
-        <v>0.510782</v>
+        <v>0.048412</v>
       </c>
       <c r="O16">
-        <v>0.005866207331499286</v>
+        <v>0.0006272205626770378</v>
       </c>
       <c r="P16">
-        <v>0.00749600971639195</v>
+        <v>0.0009297424696707817</v>
       </c>
       <c r="Q16">
-        <v>10.275428054664</v>
+        <v>0.3536865122902222</v>
       </c>
       <c r="R16">
-        <v>92.478852491976</v>
+        <v>3.183178610612</v>
       </c>
       <c r="S16">
-        <v>0.001349349225029683</v>
+        <v>6.719872969524877E-05</v>
       </c>
       <c r="T16">
-        <v>0.001896373438431314</v>
+        <v>0.000106673451099251</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>60.351156</v>
+        <v>21.91728366666667</v>
       </c>
       <c r="H17">
-        <v>181.053468</v>
+        <v>65.751851</v>
       </c>
       <c r="I17">
-        <v>0.2300207184604941</v>
+        <v>0.1071373193003082</v>
       </c>
       <c r="J17">
-        <v>0.2529843890522722</v>
+        <v>0.1147344071923741</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.991516</v>
+        <v>6.884988</v>
       </c>
       <c r="N17">
-        <v>9.983032</v>
+        <v>13.769976</v>
       </c>
       <c r="O17">
-        <v>0.1719790502865958</v>
+        <v>0.267603448363091</v>
       </c>
       <c r="P17">
-        <v>0.1465065426562639</v>
+        <v>0.264449547499533</v>
       </c>
       <c r="Q17">
-        <v>301.243760792496</v>
+        <v>150.900235037596</v>
       </c>
       <c r="R17">
-        <v>1807.462564754976</v>
+        <v>905.401410225576</v>
       </c>
       <c r="S17">
-        <v>0.0395587447070762</v>
+        <v>0.02867031609314001</v>
       </c>
       <c r="T17">
-        <v>0.03706386818605557</v>
+        <v>0.0303414620646505</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>60.351156</v>
+        <v>21.91728366666667</v>
       </c>
       <c r="H18">
-        <v>181.053468</v>
+        <v>65.751851</v>
       </c>
       <c r="I18">
-        <v>0.2300207184604941</v>
+        <v>0.1071373193003082</v>
       </c>
       <c r="J18">
-        <v>0.2529843890522722</v>
+        <v>0.1147344071923741</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>9.215909999999999</v>
+        <v>0.045438</v>
       </c>
       <c r="N18">
-        <v>27.64773</v>
+        <v>0.136314</v>
       </c>
       <c r="O18">
-        <v>0.317527470477254</v>
+        <v>0.001766069234502969</v>
       </c>
       <c r="P18">
-        <v>0.4057458029378114</v>
+        <v>0.00261788224016159</v>
       </c>
       <c r="Q18">
-        <v>556.1908220919599</v>
+        <v>0.995877535246</v>
       </c>
       <c r="R18">
-        <v>5005.717398827639</v>
+        <v>8.962897817213999</v>
       </c>
       <c r="S18">
-        <v>0.07303789689012129</v>
+        <v>0.0001892119234833954</v>
       </c>
       <c r="T18">
-        <v>0.1026473540667459</v>
+        <v>0.0003003611669243845</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>60.351156</v>
+        <v>21.91728366666667</v>
       </c>
       <c r="H19">
-        <v>181.053468</v>
+        <v>65.751851</v>
       </c>
       <c r="I19">
-        <v>0.2300207184604941</v>
+        <v>0.1071373193003082</v>
       </c>
       <c r="J19">
-        <v>0.2529843890522722</v>
+        <v>0.1147344071923741</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.194159</v>
+        <v>0.039875</v>
       </c>
       <c r="N19">
-        <v>0.5824769999999999</v>
+        <v>0.119625</v>
       </c>
       <c r="O19">
-        <v>0.006689607010093757</v>
+        <v>0.001549848380778333</v>
       </c>
       <c r="P19">
-        <v>0.008548173685789306</v>
+        <v>0.002297373439113593</v>
       </c>
       <c r="Q19">
-        <v>11.717720097804</v>
+        <v>0.8739516862083333</v>
       </c>
       <c r="R19">
-        <v>105.459480880236</v>
+        <v>7.865565175875</v>
       </c>
       <c r="S19">
-        <v>0.001538748210680123</v>
+        <v>0.0001660466008385139</v>
       </c>
       <c r="T19">
-        <v>0.002162554497412118</v>
+        <v>0.0002635877796362039</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>47.957405</v>
+        <v>32.580653</v>
       </c>
       <c r="H20">
-        <v>95.91481</v>
+        <v>65.161306</v>
       </c>
       <c r="I20">
-        <v>0.1827835203952164</v>
+        <v>0.1592626110315987</v>
       </c>
       <c r="J20">
-        <v>0.1340209048573141</v>
+        <v>0.1137039292747955</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.939895</v>
+        <v>18.2296485</v>
       </c>
       <c r="N20">
-        <v>27.87979</v>
+        <v>36.459297</v>
       </c>
       <c r="O20">
-        <v>0.4802889349037177</v>
+        <v>0.7085439801851577</v>
       </c>
       <c r="P20">
-        <v>0.4091514124048364</v>
+        <v>0.7001932751227076</v>
       </c>
       <c r="Q20">
-        <v>668.521190172475</v>
+        <v>593.9338520904705</v>
       </c>
       <c r="R20">
-        <v>2674.0847606899</v>
+        <v>2375.735408361882</v>
       </c>
       <c r="S20">
-        <v>0.08778890232857046</v>
+        <v>0.1128445643150095</v>
       </c>
       <c r="T20">
-        <v>0.05483484251414427</v>
+        <v>0.07961472663323976</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>47.957405</v>
+        <v>32.580653</v>
       </c>
       <c r="H21">
-        <v>95.91481</v>
+        <v>65.161306</v>
       </c>
       <c r="I21">
-        <v>0.1827835203952164</v>
+        <v>0.1592626110315987</v>
       </c>
       <c r="J21">
-        <v>0.1340209048573141</v>
+        <v>0.1137039292747955</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.536709</v>
       </c>
       <c r="O21">
-        <v>0.01764872999083942</v>
+        <v>0.01990943327379303</v>
       </c>
       <c r="P21">
-        <v>0.02255205859890708</v>
+        <v>0.02951217922881346</v>
       </c>
       <c r="Q21">
-        <v>24.56552529338167</v>
+        <v>16.68899423032567</v>
       </c>
       <c r="R21">
-        <v>147.39315176029</v>
+        <v>100.133965381954</v>
       </c>
       <c r="S21">
-        <v>0.003225896998230265</v>
+        <v>0.003170828327343667</v>
       </c>
       <c r="T21">
-        <v>0.003022447299820699</v>
+        <v>0.003355650739778094</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>47.957405</v>
+        <v>32.580653</v>
       </c>
       <c r="H22">
-        <v>95.91481</v>
+        <v>65.161306</v>
       </c>
       <c r="I22">
-        <v>0.1827835203952164</v>
+        <v>0.1592626110315987</v>
       </c>
       <c r="J22">
-        <v>0.1340209048573141</v>
+        <v>0.1137039292747955</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.1702606666666666</v>
+        <v>0.01613733333333333</v>
       </c>
       <c r="N22">
-        <v>0.510782</v>
+        <v>0.048412</v>
       </c>
       <c r="O22">
-        <v>0.005866207331499286</v>
+        <v>0.0006272205626770378</v>
       </c>
       <c r="P22">
-        <v>0.00749600971639195</v>
+        <v>0.0009297424696707817</v>
       </c>
       <c r="Q22">
-        <v>8.165259746903333</v>
+        <v>0.5257648576786667</v>
       </c>
       <c r="R22">
-        <v>48.99155848142</v>
+        <v>3.154589146071999</v>
       </c>
       <c r="S22">
-        <v>0.001072246027419668</v>
+        <v>9.989278450465353E-05</v>
       </c>
       <c r="T22">
-        <v>0.001004622005010068</v>
+        <v>0.0001057153720152203</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>47.957405</v>
+        <v>32.580653</v>
       </c>
       <c r="H23">
-        <v>95.91481</v>
+        <v>65.161306</v>
       </c>
       <c r="I23">
-        <v>0.1827835203952164</v>
+        <v>0.1592626110315987</v>
       </c>
       <c r="J23">
-        <v>0.1340209048573141</v>
+        <v>0.1137039292747955</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.991516</v>
+        <v>6.884988</v>
       </c>
       <c r="N23">
-        <v>9.983032</v>
+        <v>13.769976</v>
       </c>
       <c r="O23">
-        <v>0.1719790502865958</v>
+        <v>0.267603448363091</v>
       </c>
       <c r="P23">
-        <v>0.1465065426562639</v>
+        <v>0.264449547499533</v>
       </c>
       <c r="Q23">
-        <v>239.38015437598</v>
+        <v>224.317404937164</v>
       </c>
       <c r="R23">
-        <v>957.52061750392</v>
+        <v>897.2696197486559</v>
       </c>
       <c r="S23">
-        <v>0.03143493624560994</v>
+        <v>0.04261922390736546</v>
       </c>
       <c r="T23">
-        <v>0.01963493941430917</v>
+        <v>0.03006895264563857</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>47.957405</v>
+        <v>32.580653</v>
       </c>
       <c r="H24">
-        <v>95.91481</v>
+        <v>65.161306</v>
       </c>
       <c r="I24">
-        <v>0.1827835203952164</v>
+        <v>0.1592626110315987</v>
       </c>
       <c r="J24">
-        <v>0.1340209048573141</v>
+        <v>0.1137039292747955</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>9.215909999999999</v>
+        <v>0.045438</v>
       </c>
       <c r="N24">
-        <v>27.64773</v>
+        <v>0.136314</v>
       </c>
       <c r="O24">
-        <v>0.317527470477254</v>
+        <v>0.001766069234502969</v>
       </c>
       <c r="P24">
-        <v>0.4057458029378114</v>
+        <v>0.00261788224016159</v>
       </c>
       <c r="Q24">
-        <v>441.97112831355</v>
+        <v>1.480399711014</v>
       </c>
       <c r="R24">
-        <v>2651.8267698813</v>
+        <v>8.882398266084</v>
       </c>
       <c r="S24">
-        <v>0.05803878887602065</v>
+        <v>0.0002812687975495195</v>
       </c>
       <c r="T24">
-        <v>0.05437841965178295</v>
+        <v>0.0002976634970850766</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>47.957405</v>
+        <v>32.580653</v>
       </c>
       <c r="H25">
-        <v>95.91481</v>
+        <v>65.161306</v>
       </c>
       <c r="I25">
-        <v>0.1827835203952164</v>
+        <v>0.1592626110315987</v>
       </c>
       <c r="J25">
-        <v>0.1340209048573141</v>
+        <v>0.1137039292747955</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.194159</v>
+        <v>0.039875</v>
       </c>
       <c r="N25">
-        <v>0.5824769999999999</v>
+        <v>0.119625</v>
       </c>
       <c r="O25">
-        <v>0.006689607010093757</v>
+        <v>0.001549848380778333</v>
       </c>
       <c r="P25">
-        <v>0.008548173685789306</v>
+        <v>0.002297373439113593</v>
       </c>
       <c r="Q25">
-        <v>9.311361797395</v>
+        <v>1.299153538375</v>
       </c>
       <c r="R25">
-        <v>55.86817078436999</v>
+        <v>7.794921230249999</v>
       </c>
       <c r="S25">
-        <v>0.001222749919365455</v>
+        <v>0.0002468328998258527</v>
       </c>
       <c r="T25">
-        <v>0.001145633972246965</v>
+        <v>0.0002612203870387656</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>8.159631666666668</v>
+        <v>32.172324</v>
       </c>
       <c r="H26">
-        <v>24.478895</v>
+        <v>96.51697200000001</v>
       </c>
       <c r="I26">
-        <v>0.03109939332959364</v>
+        <v>0.1572665938646032</v>
       </c>
       <c r="J26">
-        <v>0.0342041407141106</v>
+        <v>0.1684183395296807</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.939895</v>
+        <v>18.2296485</v>
       </c>
       <c r="N26">
-        <v>27.87979</v>
+        <v>36.459297</v>
       </c>
       <c r="O26">
-        <v>0.4802889349037177</v>
+        <v>0.7085439801851577</v>
       </c>
       <c r="P26">
-        <v>0.4091514124048364</v>
+        <v>0.7001932751227076</v>
       </c>
       <c r="Q26">
-        <v>113.7444086720083</v>
+        <v>586.4901579481141</v>
       </c>
       <c r="R26">
-        <v>682.46645203205</v>
+        <v>3518.940947688684</v>
       </c>
       <c r="S26">
-        <v>0.01493669449842231</v>
+        <v>0.1114302983669887</v>
       </c>
       <c r="T26">
-        <v>0.01399467248327212</v>
+        <v>0.1179253887460153</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>8.159631666666668</v>
+        <v>32.172324</v>
       </c>
       <c r="H27">
-        <v>24.478895</v>
+        <v>96.51697200000001</v>
       </c>
       <c r="I27">
-        <v>0.03109939332959364</v>
+        <v>0.1572665938646032</v>
       </c>
       <c r="J27">
-        <v>0.0342041407141106</v>
+        <v>0.1684183395296807</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1.536709</v>
       </c>
       <c r="O27">
-        <v>0.01764872999083942</v>
+        <v>0.01990943327379303</v>
       </c>
       <c r="P27">
-        <v>0.02255205859890708</v>
+        <v>0.02951217922881346</v>
       </c>
       <c r="Q27">
-        <v>4.17965980628389</v>
+        <v>16.479833280572</v>
       </c>
       <c r="R27">
-        <v>37.616938256555</v>
+        <v>148.318499525148</v>
       </c>
       <c r="S27">
-        <v>0.0005488647957529106</v>
+        <v>0.003131088756744027</v>
       </c>
       <c r="T27">
-        <v>0.0007713737857098858</v>
+        <v>0.004970392221619095</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>8.159631666666668</v>
+        <v>32.172324</v>
       </c>
       <c r="H28">
-        <v>24.478895</v>
+        <v>96.51697200000001</v>
       </c>
       <c r="I28">
-        <v>0.03109939332959364</v>
+        <v>0.1572665938646032</v>
       </c>
       <c r="J28">
-        <v>0.0342041407141106</v>
+        <v>0.1684183395296807</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M28">
-        <v>0.1702606666666666</v>
+        <v>0.01613733333333333</v>
       </c>
       <c r="N28">
-        <v>0.510782</v>
+        <v>0.048412</v>
       </c>
       <c r="O28">
-        <v>0.005866207331499286</v>
+        <v>0.0006272205626770378</v>
       </c>
       <c r="P28">
-        <v>0.00749600971639195</v>
+        <v>0.0009297424696707817</v>
       </c>
       <c r="Q28">
-        <v>1.389264327321111</v>
+        <v>0.519175516496</v>
       </c>
       <c r="R28">
-        <v>12.50337894589</v>
+        <v>4.672579648464001</v>
       </c>
       <c r="S28">
-        <v>0.0001824354891552422</v>
+        <v>9.864084149405763E-05</v>
       </c>
       <c r="T28">
-        <v>0.0002563945711338105</v>
+        <v>0.0001565856829321775</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>8.159631666666668</v>
+        <v>32.172324</v>
       </c>
       <c r="H29">
-        <v>24.478895</v>
+        <v>96.51697200000001</v>
       </c>
       <c r="I29">
-        <v>0.03109939332959364</v>
+        <v>0.1572665938646032</v>
       </c>
       <c r="J29">
-        <v>0.0342041407141106</v>
+        <v>0.1684183395296807</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4.991516</v>
+        <v>6.884988</v>
       </c>
       <c r="N29">
-        <v>9.983032</v>
+        <v>13.769976</v>
       </c>
       <c r="O29">
-        <v>0.1719790502865958</v>
+        <v>0.267603448363091</v>
       </c>
       <c r="P29">
-        <v>0.1465065426562639</v>
+        <v>0.264449547499533</v>
       </c>
       <c r="Q29">
-        <v>40.72893201827334</v>
+        <v>221.506064672112</v>
       </c>
       <c r="R29">
-        <v>244.37359210964</v>
+        <v>1329.036388032672</v>
       </c>
       <c r="S29">
-        <v>0.005348444129312807</v>
+        <v>0.04208508283048555</v>
       </c>
       <c r="T29">
-        <v>0.005011130400552696</v>
+        <v>0.04453815367924677</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>8.159631666666668</v>
+        <v>32.172324</v>
       </c>
       <c r="H30">
-        <v>24.478895</v>
+        <v>96.51697200000001</v>
       </c>
       <c r="I30">
-        <v>0.03109939332959364</v>
+        <v>0.1572665938646032</v>
       </c>
       <c r="J30">
-        <v>0.0342041407141106</v>
+        <v>0.1684183395296807</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M30">
-        <v>9.215909999999999</v>
+        <v>0.045438</v>
       </c>
       <c r="N30">
-        <v>27.64773</v>
+        <v>0.136314</v>
       </c>
       <c r="O30">
-        <v>0.317527470477254</v>
+        <v>0.001766069234502969</v>
       </c>
       <c r="P30">
-        <v>0.4057458029378114</v>
+        <v>0.00261788224016159</v>
       </c>
       <c r="Q30">
-        <v>75.19843107315</v>
+        <v>1.461846057912</v>
       </c>
       <c r="R30">
-        <v>676.7858796583499</v>
+        <v>13.156614521208</v>
       </c>
       <c r="S30">
-        <v>0.009874911697323055</v>
+        <v>0.0002777436930393491</v>
       </c>
       <c r="T30">
-        <v>0.01387818653784469</v>
+        <v>0.0004408993799722558</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>8.159631666666668</v>
+        <v>32.172324</v>
       </c>
       <c r="H31">
-        <v>24.478895</v>
+        <v>96.51697200000001</v>
       </c>
       <c r="I31">
-        <v>0.03109939332959364</v>
+        <v>0.1572665938646032</v>
       </c>
       <c r="J31">
-        <v>0.0342041407141106</v>
+        <v>0.1684183395296807</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.194159</v>
+        <v>0.039875</v>
       </c>
       <c r="N31">
-        <v>0.5824769999999999</v>
+        <v>0.119625</v>
       </c>
       <c r="O31">
-        <v>0.006689607010093757</v>
+        <v>0.001549848380778333</v>
       </c>
       <c r="P31">
-        <v>0.008548173685789306</v>
+        <v>0.002297373439113593</v>
       </c>
       <c r="Q31">
-        <v>1.584265924768333</v>
+        <v>1.2828714195</v>
       </c>
       <c r="R31">
-        <v>14.258393322915</v>
+        <v>11.5458427755</v>
       </c>
       <c r="S31">
-        <v>0.0002080427196273127</v>
+        <v>0.000243739375851579</v>
       </c>
       <c r="T31">
-        <v>0.0002923829355973949</v>
+        <v>0.0003869198198951033</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>72.15659599999999</v>
+        <v>59.58763</v>
       </c>
       <c r="H32">
-        <v>216.469788</v>
+        <v>178.76289</v>
       </c>
       <c r="I32">
-        <v>0.2750156443330367</v>
+        <v>0.2912796603243287</v>
       </c>
       <c r="J32">
-        <v>0.302471295747038</v>
+        <v>0.3119342482410964</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>13.939895</v>
+        <v>18.2296485</v>
       </c>
       <c r="N32">
-        <v>27.87979</v>
+        <v>36.459297</v>
       </c>
       <c r="O32">
-        <v>0.4802889349037177</v>
+        <v>0.7085439801851577</v>
       </c>
       <c r="P32">
-        <v>0.4091514124048364</v>
+        <v>0.7001932751227076</v>
       </c>
       <c r="Q32">
-        <v>1005.85537179742</v>
+        <v>1086.261549848055</v>
       </c>
       <c r="R32">
-        <v>6035.132230784519</v>
+        <v>6517.56929908833</v>
       </c>
       <c r="S32">
-        <v>0.1320869708985738</v>
+        <v>0.2063844498731806</v>
       </c>
       <c r="T32">
-        <v>0.1237565578668216</v>
+        <v>0.218414262898873</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>72.15659599999999</v>
+        <v>59.58763</v>
       </c>
       <c r="H33">
-        <v>216.469788</v>
+        <v>178.76289</v>
       </c>
       <c r="I33">
-        <v>0.2750156443330367</v>
+        <v>0.2912796603243287</v>
       </c>
       <c r="J33">
-        <v>0.302471295747038</v>
+        <v>0.3119342482410964</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>1.536709</v>
       </c>
       <c r="O33">
-        <v>0.01764872999083942</v>
+        <v>0.01990943327379303</v>
       </c>
       <c r="P33">
-        <v>0.02255205859890708</v>
+        <v>0.02951217922881346</v>
       </c>
       <c r="Q33">
-        <v>36.96123016085467</v>
+        <v>30.52294910322334</v>
       </c>
       <c r="R33">
-        <v>332.651071447692</v>
+        <v>274.70654192901</v>
       </c>
       <c r="S33">
-        <v>0.004853676850090491</v>
+        <v>0.005799212961240321</v>
       </c>
       <c r="T33">
-        <v>0.006821350386174556</v>
+        <v>0.009205859441696428</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>72.15659599999999</v>
+        <v>59.58763</v>
       </c>
       <c r="H34">
-        <v>216.469788</v>
+        <v>178.76289</v>
       </c>
       <c r="I34">
-        <v>0.2750156443330367</v>
+        <v>0.2912796603243287</v>
       </c>
       <c r="J34">
-        <v>0.302471295747038</v>
+        <v>0.3119342482410964</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M34">
-        <v>0.1702606666666666</v>
+        <v>0.01613733333333333</v>
       </c>
       <c r="N34">
-        <v>0.510782</v>
+        <v>0.048412</v>
       </c>
       <c r="O34">
-        <v>0.005866207331499286</v>
+        <v>0.0006272205626770378</v>
       </c>
       <c r="P34">
-        <v>0.00749600971639195</v>
+        <v>0.0009297424696707817</v>
       </c>
       <c r="Q34">
-        <v>12.28543013935733</v>
+        <v>0.9615854478533333</v>
       </c>
       <c r="R34">
-        <v>110.568871254216</v>
+        <v>8.65426903068</v>
       </c>
       <c r="S34">
-        <v>0.00161329878906346</v>
+        <v>0.0001826965924450019</v>
       </c>
       <c r="T34">
-        <v>0.00226732777184946</v>
+        <v>0.0002900185183345757</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>72.15659599999999</v>
+        <v>59.58763</v>
       </c>
       <c r="H35">
-        <v>216.469788</v>
+        <v>178.76289</v>
       </c>
       <c r="I35">
-        <v>0.2750156443330367</v>
+        <v>0.2912796603243287</v>
       </c>
       <c r="J35">
-        <v>0.302471295747038</v>
+        <v>0.3119342482410964</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>4.991516</v>
+        <v>6.884988</v>
       </c>
       <c r="N35">
-        <v>9.983032</v>
+        <v>13.769976</v>
       </c>
       <c r="O35">
-        <v>0.1719790502865958</v>
+        <v>0.267603448363091</v>
       </c>
       <c r="P35">
-        <v>0.1465065426562639</v>
+        <v>0.264449547499533</v>
       </c>
       <c r="Q35">
-        <v>360.170803439536</v>
+        <v>410.26011749844</v>
       </c>
       <c r="R35">
-        <v>2161.024820637216</v>
+        <v>2461.56070499064</v>
       </c>
       <c r="S35">
-        <v>0.04729692932635186</v>
+        <v>0.07794744154082016</v>
       </c>
       <c r="T35">
-        <v>0.04431402379265883</v>
+        <v>0.08249087079696495</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,46 +2651,46 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>72.15659599999999</v>
+        <v>59.58763</v>
       </c>
       <c r="H36">
-        <v>216.469788</v>
+        <v>178.76289</v>
       </c>
       <c r="I36">
-        <v>0.2750156443330367</v>
+        <v>0.2912796603243287</v>
       </c>
       <c r="J36">
-        <v>0.302471295747038</v>
+        <v>0.3119342482410964</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M36">
-        <v>9.215909999999999</v>
+        <v>0.045438</v>
       </c>
       <c r="N36">
-        <v>27.64773</v>
+        <v>0.136314</v>
       </c>
       <c r="O36">
-        <v>0.317527470477254</v>
+        <v>0.001766069234502969</v>
       </c>
       <c r="P36">
-        <v>0.4057458029378114</v>
+        <v>0.00261788224016159</v>
       </c>
       <c r="Q36">
-        <v>664.9886946423599</v>
+        <v>2.70754273194</v>
       </c>
       <c r="R36">
-        <v>5984.898251781239</v>
+        <v>24.36788458746</v>
       </c>
       <c r="S36">
-        <v>0.08732502188674128</v>
+        <v>0.0005144200467352719</v>
       </c>
       <c r="T36">
-        <v>0.1227264587585222</v>
+        <v>0.0008166071285685232</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>72.15659599999999</v>
+        <v>59.58763</v>
       </c>
       <c r="H37">
-        <v>216.469788</v>
+        <v>178.76289</v>
       </c>
       <c r="I37">
-        <v>0.2750156443330367</v>
+        <v>0.2912796603243287</v>
       </c>
       <c r="J37">
-        <v>0.302471295747038</v>
+        <v>0.3119342482410964</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M37">
-        <v>0.194159</v>
+        <v>0.039875</v>
       </c>
       <c r="N37">
-        <v>0.5824769999999999</v>
+        <v>0.119625</v>
       </c>
       <c r="O37">
-        <v>0.006689607010093757</v>
+        <v>0.001549848380778333</v>
       </c>
       <c r="P37">
-        <v>0.008548173685789306</v>
+        <v>0.002297373439113593</v>
       </c>
       <c r="Q37">
-        <v>14.009852522764</v>
+        <v>2.37605674625</v>
       </c>
       <c r="R37">
-        <v>126.088672704876</v>
+        <v>21.38451071625</v>
       </c>
       <c r="S37">
-        <v>0.001839746582215733</v>
+        <v>0.0004514393099073236</v>
       </c>
       <c r="T37">
-        <v>0.002585577171011425</v>
+        <v>0.000716629456658961</v>
       </c>
     </row>
   </sheetData>
